--- a/bootstrap_result.xlsx
+++ b/bootstrap_result.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,282 +448,290 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45022</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1148226450753226</v>
+        <v>0.1149253689445941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45029</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1147029610441144</v>
+        <v>0.1176303970858351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45036</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1111712447402749</v>
+        <v>0.1160402554005267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45043</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1145254406663928</v>
+        <v>0.1142770588214883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45050</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1134669771584299</v>
+        <v>0.1115226183785876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45057</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1138908928970677</v>
+        <v>0.1146512671890935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45064</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1169873123504325</v>
+        <v>0.1150639497199313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45071</v>
+        <v>45386</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1132066386353424</v>
+        <v>0.1152042407673304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45078</v>
+        <v>45393</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1209038600756568</v>
+        <v>0.1139923488883471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45092</v>
+        <v>45400</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1187001643053337</v>
+        <v>0.1145097217311756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45106</v>
+        <v>45407</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1154274005179414</v>
+        <v>0.114138147391768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45113</v>
+        <v>45414</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1151945221132808</v>
+        <v>0.1135182462139471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45120</v>
+        <v>45421</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1161685596970444</v>
+        <v>0.1133101680398443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45134</v>
+        <v>45428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1155234945801508</v>
+        <v>0.113544678510155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45148</v>
+        <v>45442</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1186956918922366</v>
+        <v>0.1132857668085169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162</v>
+        <v>45456</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1185613494645674</v>
+        <v>0.1128492344007428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45190</v>
+        <v>45470</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1165264272231479</v>
+        <v>0.1127173697487235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45218</v>
+        <v>45484</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1152141889573601</v>
+        <v>0.1124294030257905</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45246</v>
+        <v>45498</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1154555658357625</v>
+        <v>0.1120689187081668</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45267</v>
+        <v>45512</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1127149915202706</v>
+        <v>0.1119618425669054</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45540</v>
+        <v>45526</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1065520576417117</v>
+        <v>0.1116264032611742</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45631</v>
+        <v>45540</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1029631970995275</v>
+        <v>0.1103773768889084</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45722</v>
+        <v>45631</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1014141378398061</v>
+        <v>0.1084394514913806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46086</v>
+        <v>45722</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09394401449357918</v>
+        <v>0.10052419353184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46450</v>
+        <v>46086</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08929820972909663</v>
+        <v>0.09985497938621832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46541</v>
+        <v>46450</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08775894857539017</v>
+        <v>0.09443413806179687</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>47269</v>
+        <v>46541</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08615256533862814</v>
+        <v>0.09399908225259768</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>47997</v>
+        <v>47269</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08673216748959152</v>
+        <v>0.09133307536843219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>48725</v>
+        <v>47997</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08685060401619439</v>
+        <v>0.09173914183310569</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>49271</v>
+        <v>48725</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08579913523548624</v>
+        <v>0.09198713888312358</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>49999</v>
+        <v>49271</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08507451383446063</v>
+        <v>0.09195404815525676</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>50727</v>
+        <v>49999</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08944910431866174</v>
+        <v>0.09182626216107417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>52183</v>
+        <v>50727</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08989225873349843</v>
+        <v>0.09330403557829631</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>54003</v>
+        <v>52183</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0896260964724003</v>
+        <v>0.09435855172667577</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
+        <v>54003</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.09400041443698841</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>56096</v>
       </c>
-      <c r="B36" t="n">
-        <v>0.08924791721625823</v>
+      <c r="B37" t="n">
+        <v>0.09490662394281513</v>
       </c>
     </row>
   </sheetData>
